--- a/Coverage Survey/Burkina Faso/Oncho/Formulaire CAP TIDC Oncho 2020.xlsx
+++ b/Coverage Survey/Burkina Faso/Oncho/Formulaire CAP TIDC Oncho 2020.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\Oncho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE57ABC-EC5A-43C0-8937-A7A1EED30B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51621A52-B974-4D18-9794-3C46B729D730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -567,9 +567,6 @@
     <t>Q10.a. Nombre d'aveugles</t>
   </si>
   <si>
-    <t>bf_ECT_Oncho_3_household</t>
-  </si>
-  <si>
     <t>date_debut</t>
   </si>
   <si>
@@ -579,13 +576,16 @@
     <t>${Q13_Existence_Perception_DC} = 'Oui'</t>
   </si>
   <si>
-    <t>(BF - Novembre 2020) ECT TIDC Oncho - 3. Formulaire Ménage</t>
+    <t>bf_ECT_Oncho_2_cap</t>
+  </si>
+  <si>
+    <t>(BF - Novembre 2020) ECT TIDC Oncho - 2. Formulaire CAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -974,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1395,7 +1395,7 @@
         <v>79</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2043,20 +2043,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C2">
         <v>20201117</v>
